--- a/patient_data/patient_46.xlsx
+++ b/patient_data/patient_46.xlsx
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1143,16 +1143,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1727,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1919,28 +1919,28 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2082,19 +2082,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2121,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
